--- a/config1.xlsx
+++ b/config1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
   <si>
     <t>STT</t>
   </si>
@@ -188,9 +188,6 @@
   </si>
   <si>
     <t>syncFrequency</t>
-  </si>
-  <si>
-    <t>volumeStatsAggPeriod</t>
   </si>
 </sst>
 </file>
@@ -198,7 +195,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +205,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -228,7 +231,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -251,11 +254,18 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -275,14 +285,32 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,20 +614,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -642,20 +670,20 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="C4" s="8"/>
+      <c r="D4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -663,12 +691,12 @@
         <v>10</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="6" t="b">
+      <c r="D5" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -676,25 +704,25 @@
         <v>11</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="E7" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -707,7 +735,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -720,7 +748,7 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -832,7 +860,7 @@
         <v>30</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="3">
+      <c r="D18" s="5">
         <v>10248</v>
       </c>
       <c r="E18" s="4"/>
@@ -871,7 +899,7 @@
         <v>33</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="3">
+      <c r="D21" s="5">
         <v>80</v>
       </c>
       <c r="E21" s="4"/>
@@ -884,7 +912,7 @@
         <v>34</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="4"/>
@@ -897,7 +925,7 @@
         <v>35</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="4"/>
@@ -923,7 +951,7 @@
         <v>38</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="3">
+      <c r="D25" s="5">
         <v>0</v>
       </c>
       <c r="E25" s="4"/>
@@ -949,7 +977,7 @@
         <v>41</v>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="4"/>
@@ -962,7 +990,7 @@
         <v>42</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="3">
+      <c r="D28" s="5">
         <v>0</v>
       </c>
       <c r="E28" s="4"/>
@@ -988,7 +1016,7 @@
         <v>45</v>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="4"/>
@@ -1014,7 +1042,7 @@
         <v>47</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="3">
+      <c r="D32" s="5">
         <v>10255</v>
       </c>
       <c r="E32" s="4"/>
@@ -1040,7 +1068,7 @@
         <v>49</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E34" s="4"/>
@@ -1097,7 +1125,7 @@
       </c>
       <c r="E38" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1122,19 +1150,6 @@
         <v>9</v>
       </c>
       <c r="E40" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
-      <c r="A41" s="3">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
